--- a/律和/综合运营月度数据.xlsx
+++ b/律和/综合运营月度数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>运营统筹表（冯亚荣）</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>企业服务（IP／UV／PV）</t>
+  </si>
+  <si>
+    <t>535/604/5940</t>
   </si>
   <si>
     <t>律师平台（IP／UV／PV）</t>
@@ -108,12 +111,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,49 +143,6 @@
       <color theme="0" tint="-0.0499893185216834"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,7 +156,73 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,24 +236,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,30 +274,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,25 +324,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,151 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,15 +586,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,7 +609,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,17 +644,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -663,48 +662,74 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,104 +738,104 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="34" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -822,10 +847,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="32" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="34" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="34" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -865,7 +890,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -876,43 +901,45 @@
     <cellStyle name="差" xfId="7" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="注释" xfId="11" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
-    <cellStyle name="标题" xfId="15" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
-    <cellStyle name="输出" xfId="22" builtinId="21"/>
-    <cellStyle name="计算" xfId="23" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
-    <cellStyle name="汇总" xfId="28" builtinId="25"/>
-    <cellStyle name="好" xfId="29" builtinId="26"/>
-    <cellStyle name="适中" xfId="30" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -1184,7 +1211,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="32" customHeight="1"/>
@@ -1360,7 +1387,9 @@
         <v>17</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -1371,11 +1400,11 @@
     <row r="11" customHeight="1" spans="1:10">
       <c r="A11" s="13"/>
       <c r="B11" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1387,11 +1416,11 @@
     <row r="12" customHeight="1" spans="1:10">
       <c r="A12" s="13"/>
       <c r="B12" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -1402,10 +1431,10 @@
     </row>
     <row r="13" customHeight="1" spans="1:10">
       <c r="A13" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="10"/>
@@ -1419,7 +1448,7 @@
     <row r="14" customHeight="1" spans="1:10">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="10"/>
@@ -1432,10 +1461,10 @@
     </row>
     <row r="15" customHeight="1" spans="1:10">
       <c r="A15" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="10"/>
@@ -1449,7 +1478,7 @@
     <row r="16" customHeight="1" spans="1:10">
       <c r="A16" s="13"/>
       <c r="B16" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="10"/>
@@ -1463,7 +1492,7 @@
     <row r="17" customHeight="1" spans="1:10">
       <c r="A17" s="13"/>
       <c r="B17" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="10"/>
